--- a/data/trans_orig/P21-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>395760</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>375395</v>
+        <v>378274</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>412203</v>
+        <v>412849</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8010303796341385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.759809629625023</v>
+        <v>0.7656382400600049</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8343111001291298</v>
+        <v>0.8356190306560065</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>371</v>
@@ -765,19 +765,19 @@
         <v>355048</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>336259</v>
+        <v>335993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>372571</v>
+        <v>372599</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7610097392013503</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7207362560578714</v>
+        <v>0.720166251859649</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7985672932183214</v>
+        <v>0.7986273063319421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>773</v>
@@ -786,19 +786,19 @@
         <v>750809</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>726013</v>
+        <v>722815</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>774663</v>
+        <v>772798</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7815932253688348</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7557813826605311</v>
+        <v>0.7524520300872636</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8064257466272581</v>
+        <v>0.8044837753862751</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3826</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>905</v>
+        <v>868</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9548</v>
+        <v>9044</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.007743729535966509</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.001831291705258403</v>
+        <v>0.001756934428960562</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01932641784896492</v>
+        <v>0.01830490036136375</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8053</v>
+        <v>8155</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.004922671277980432</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01726110084039363</v>
+        <v>0.01747898964582251</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -857,19 +857,19 @@
         <v>6123</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2617</v>
+        <v>2595</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13648</v>
+        <v>12339</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006373602922326409</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00272463038430202</v>
+        <v>0.002701615394158501</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01420778685357665</v>
+        <v>0.01284496167068353</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>94478</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77675</v>
+        <v>77088</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114609</v>
+        <v>111550</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.191225890829895</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1572168565683298</v>
+        <v>0.1560280537339116</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2319714199207173</v>
+        <v>0.2257799644188631</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>115</v>
@@ -907,19 +907,19 @@
         <v>109204</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>93391</v>
+        <v>92003</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>128816</v>
+        <v>128708</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2340675895206693</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2001749226284752</v>
+        <v>0.1971993472943862</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2761029848026618</v>
+        <v>0.2758716825787127</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>208</v>
@@ -928,19 +928,19 @@
         <v>203682</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>179410</v>
+        <v>182244</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>227764</v>
+        <v>231176</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2120331717088388</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1867662944540533</v>
+        <v>0.1897163696305904</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.23710301501171</v>
+        <v>0.2406544670225337</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>624127</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>605040</v>
+        <v>602864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>641488</v>
+        <v>642139</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8485875663777609</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8226369900829834</v>
+        <v>0.8196784351514886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.872192276630722</v>
+        <v>0.87307774064262</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>418</v>
@@ -1053,19 +1053,19 @@
         <v>440242</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415243</v>
+        <v>416327</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>463152</v>
+        <v>463222</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7038307563453908</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6638644972280695</v>
+        <v>0.6655970255582941</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7404577250012877</v>
+        <v>0.7405692094015111</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1013</v>
@@ -1074,19 +1074,19 @@
         <v>1064368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1031468</v>
+        <v>1032063</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1090339</v>
+        <v>1093013</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7820587942174648</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7578849918739249</v>
+        <v>0.7583225205131378</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8011416861198408</v>
+        <v>0.8031061278495366</v>
       </c>
     </row>
     <row r="9">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7550</v>
+        <v>7447</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002914241030471487</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01026574174408205</v>
+        <v>0.01012498282919857</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6844</v>
+        <v>6908</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003135906035270036</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01094122649820802</v>
+        <v>0.01104399870251676</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -1145,19 +1145,19 @@
         <v>4105</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1021</v>
+        <v>1035</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>10209</v>
+        <v>10476</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003016116034465122</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.000749892233205999</v>
+        <v>0.0007605686820961574</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007501547489328279</v>
+        <v>0.007697564627808323</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>109219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91252</v>
+        <v>91104</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128667</v>
+        <v>130789</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1484981925917676</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1240698363881234</v>
+        <v>0.1238682385729148</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1749414086208093</v>
+        <v>0.1778257049714311</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>171</v>
@@ -1195,19 +1195,19 @@
         <v>183291</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>160570</v>
+        <v>159560</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>208301</v>
+        <v>206970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2930333376193391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2567096434252704</v>
+        <v>0.2550946157283339</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3330183687124311</v>
+        <v>0.3308897623282648</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>277</v>
@@ -1216,19 +1216,19 @@
         <v>292509</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>266010</v>
+        <v>263531</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>323580</v>
+        <v>324892</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2149250897480701</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.195454375204788</v>
+        <v>0.1936329198085099</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2377545850470856</v>
+        <v>0.2387187433696097</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>548168</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>527500</v>
+        <v>527278</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>565026</v>
+        <v>565273</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8594891888241983</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8270842650177069</v>
+        <v>0.8267351722091922</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8859216610831158</v>
+        <v>0.8863099604078561</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>527</v>
@@ -1341,19 +1341,19 @@
         <v>552617</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>531057</v>
+        <v>529430</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>574254</v>
+        <v>572126</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8011912399864697</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7699333909762701</v>
+        <v>0.7675749608518252</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8325611617315277</v>
+        <v>0.8294756955919648</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1054</v>
@@ -1362,19 +1362,19 @@
         <v>1100784</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1072077</v>
+        <v>1073353</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1128739</v>
+        <v>1127402</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8291992777403623</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8075742433409636</v>
+        <v>0.8085354334103274</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8502567309036637</v>
+        <v>0.8492495708409427</v>
       </c>
     </row>
     <row r="13">
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6049</v>
+        <v>5655</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.001572064391766399</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.009483633437409279</v>
+        <v>0.008866084098548025</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1412,19 +1412,19 @@
         <v>8270</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3966</v>
+        <v>4081</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16162</v>
+        <v>16354</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01199058905643552</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005749575948749831</v>
+        <v>0.00591683000463171</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02343215902937408</v>
+        <v>0.02371057806612752</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -1433,19 +1433,19 @@
         <v>9273</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4008</v>
+        <v>4818</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17024</v>
+        <v>17335</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006985225437894822</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003019280463232453</v>
+        <v>0.003629344653827124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0128238985911917</v>
+        <v>0.01305818585877678</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>88613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>71225</v>
+        <v>71804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>108124</v>
+        <v>109099</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1389387467840353</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1116759770596468</v>
+        <v>0.1125837844188388</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1695310062371727</v>
+        <v>0.1710603599617207</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>123</v>
@@ -1483,19 +1483,19 @@
         <v>128857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>108074</v>
+        <v>109661</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>151390</v>
+        <v>151309</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1868181709570948</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1566869568211445</v>
+        <v>0.1589881534338812</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2194872474660671</v>
+        <v>0.2193705022586128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>207</v>
@@ -1504,19 +1504,19 @@
         <v>217469</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>190739</v>
+        <v>191829</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>245561</v>
+        <v>244946</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1638154968217429</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1436800985295037</v>
+        <v>0.1445009103289198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1849765437595534</v>
+        <v>0.1845127012030469</v>
       </c>
     </row>
     <row r="15">
@@ -1608,7 +1608,7 @@
         <v>439095</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>421197</v>
+        <v>419787</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>454616</v>
@@ -1617,10 +1617,10 @@
         <v>0.8458006680443196</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8113245355842184</v>
+        <v>0.8086093018747534</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8756972211486568</v>
+        <v>0.8756975260082475</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>399</v>
@@ -1629,19 +1629,19 @@
         <v>411724</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>391707</v>
+        <v>394551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>429129</v>
+        <v>428629</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7984684752061971</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7596492448814787</v>
+        <v>0.7651641712714334</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8322234747423897</v>
+        <v>0.831252942098891</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>809</v>
@@ -1650,19 +1650,19 @@
         <v>850819</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>824335</v>
+        <v>824356</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>876381</v>
+        <v>874063</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8222147337783435</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.796621682128027</v>
+        <v>0.7966414088692254</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8469175301480004</v>
+        <v>0.8446779695017076</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>3054</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8830</v>
+        <v>7901</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.005883316225322155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001760283030358288</v>
+        <v>0.001745182164219134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01700824106226895</v>
+        <v>0.01521874697838708</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6961</v>
+        <v>6869</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.003775917235144415</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01349911891317431</v>
+        <v>0.01332053190215406</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -1721,19 +1721,19 @@
         <v>5001</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1952</v>
+        <v>1954</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11139</v>
+        <v>11259</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004833185836803941</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001886482092949262</v>
+        <v>0.001887936459163151</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01076487283874194</v>
+        <v>0.01088072223718025</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>76998</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>61429</v>
+        <v>61395</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>94902</v>
+        <v>95517</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1483160157303582</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1183276646303206</v>
+        <v>0.1182608715360191</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1828046124009933</v>
+        <v>0.1839885255809144</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>101</v>
@@ -1771,19 +1771,19 @@
         <v>101971</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>85217</v>
+        <v>85417</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>122022</v>
+        <v>119868</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1977556075586585</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1652643924586553</v>
+        <v>0.1656526572610491</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2366403448949017</v>
+        <v>0.2324631056717797</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>172</v>
@@ -1792,19 +1792,19 @@
         <v>178969</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>153792</v>
+        <v>154760</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>203987</v>
+        <v>204730</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1729520803848525</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.148621913778556</v>
+        <v>0.1495571811941434</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1971290708675733</v>
+        <v>0.1978466875612366</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>323605</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>308814</v>
+        <v>308735</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>337493</v>
+        <v>337072</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8368148913568593</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7985671635201386</v>
+        <v>0.798364333740283</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8727298656335126</v>
+        <v>0.8716409534750953</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>312</v>
@@ -1917,19 +1917,19 @@
         <v>317554</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>300310</v>
+        <v>300102</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>332994</v>
+        <v>333262</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7860528252824364</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7433677757901541</v>
+        <v>0.7428533381051178</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8242714261089932</v>
+        <v>0.8249342985666909</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>641</v>
@@ -1938,19 +1938,19 @@
         <v>641159</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>618482</v>
+        <v>617990</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>661978</v>
+        <v>661101</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8108793072752766</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.782199131536046</v>
+        <v>0.7815767645176054</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8372088063355566</v>
+        <v>0.8361005483046022</v>
       </c>
     </row>
     <row r="21">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5982</v>
+        <v>5459</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.004381501120877152</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01546896148796942</v>
+        <v>0.01411771852288054</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -1988,19 +1988,19 @@
         <v>3169</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>8625</v>
+        <v>8865</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.007845476406797353</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002407523213113849</v>
+        <v>0.002404036378527622</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02134901887965082</v>
+        <v>0.02194483583237229</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -2009,19 +2009,19 @@
         <v>4864</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1817</v>
+        <v>1794</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11204</v>
+        <v>10657</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.006151331020093465</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.002297678897601295</v>
+        <v>0.002268721135074078</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01417001482866994</v>
+        <v>0.0134777949556091</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>61411</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47766</v>
+        <v>48078</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>76441</v>
+        <v>76471</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1588036075222636</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1235201205004736</v>
+        <v>0.1243250743536818</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.197670636540987</v>
+        <v>0.1977475503276267</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>81</v>
@@ -2059,19 +2059,19 @@
         <v>83262</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>68734</v>
+        <v>67750</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>100906</v>
+        <v>100456</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2061016983107663</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1701384367434481</v>
+        <v>0.1677036822826028</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2497765359103053</v>
+        <v>0.2486609875690934</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>142</v>
@@ -2080,19 +2080,19 @@
         <v>144673</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>124813</v>
+        <v>126531</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166220</v>
+        <v>167359</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1829693617046299</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1578526853087877</v>
+        <v>0.1600253663249101</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2102193203216067</v>
+        <v>0.2116598114016966</v>
       </c>
     </row>
     <row r="23">
@@ -2184,19 +2184,19 @@
         <v>231304</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>218363</v>
+        <v>216637</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>243116</v>
+        <v>244115</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.7905585538208489</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7463298684454178</v>
+        <v>0.740427920980735</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.830929693035466</v>
+        <v>0.8343456530860879</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>268</v>
@@ -2205,19 +2205,19 @@
         <v>248284</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>232955</v>
+        <v>231301</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>263935</v>
+        <v>264717</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7239999093679517</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6793005429156929</v>
+        <v>0.674477615485615</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7696379361684674</v>
+        <v>0.7719181129368907</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>506</v>
@@ -2226,19 +2226,19 @@
         <v>479588</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>455657</v>
+        <v>460166</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>499243</v>
+        <v>503410</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7546425639436246</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7169867653011107</v>
+        <v>0.7240815609047643</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7855693779037889</v>
+        <v>0.7921262011666981</v>
       </c>
     </row>
     <row r="25">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5744</v>
+        <v>5766</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.005671069598521847</v>
@@ -2267,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01963185696334264</v>
+        <v>0.01970564265169616</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2276,19 +2276,19 @@
         <v>6189</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2559</v>
+        <v>2614</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12544</v>
+        <v>12218</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01804654466056901</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007462084594467983</v>
+        <v>0.007622656912268547</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03657720194612767</v>
+        <v>0.03562915898766367</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>9</v>
@@ -2297,19 +2297,19 @@
         <v>7848</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3418</v>
+        <v>3532</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14374</v>
+        <v>13740</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01234905171050549</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005377746424637678</v>
+        <v>0.005557163565912159</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02261742890562131</v>
+        <v>0.02161956024172787</v>
       </c>
     </row>
     <row r="26">
@@ -2326,19 +2326,19 @@
         <v>59620</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>47976</v>
+        <v>47563</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72697</v>
+        <v>73933</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2037703765806292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1639730069298749</v>
+        <v>0.1625627972975174</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2484651300111047</v>
+        <v>0.2526921680692148</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>96</v>
@@ -2347,19 +2347,19 @@
         <v>88461</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>73234</v>
+        <v>72134</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>103209</v>
+        <v>104223</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2579535459714793</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2135524427760486</v>
+        <v>0.2103425846802333</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3009580264729313</v>
+        <v>0.3039164612394435</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>159</v>
@@ -2368,19 +2368,19 @@
         <v>148081</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>128346</v>
+        <v>125421</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>170982</v>
+        <v>167277</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2330083843458699</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2019549474404014</v>
+        <v>0.1973525740853207</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2690444780080903</v>
+        <v>0.2632145002039267</v>
       </c>
     </row>
     <row r="27">
@@ -2472,19 +2472,19 @@
         <v>153254</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>140357</v>
+        <v>140335</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>165400</v>
+        <v>165000</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7301894111732846</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6687370331206193</v>
+        <v>0.6686356285562581</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7880586168478683</v>
+        <v>0.7861510501032369</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>198</v>
@@ -2493,19 +2493,19 @@
         <v>228779</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>209573</v>
+        <v>211254</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>247042</v>
+        <v>246314</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6851550771989861</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6276374355413572</v>
+        <v>0.6326710057126165</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7398512081315581</v>
+        <v>0.737669956318736</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>361</v>
@@ -2514,19 +2514,19 @@
         <v>382033</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>360643</v>
+        <v>360954</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>403134</v>
+        <v>403534</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7025366473954563</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6632016830558054</v>
+        <v>0.6637726534987299</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7413393994032117</v>
+        <v>0.7420758635481506</v>
       </c>
     </row>
     <row r="29">
@@ -2543,19 +2543,19 @@
         <v>6230</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2039</v>
+        <v>2005</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14010</v>
+        <v>13457</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02968139685777706</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009715482328816128</v>
+        <v>0.009555154368407094</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.06674943391613042</v>
+        <v>0.06411851008955081</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2564,19 +2564,19 @@
         <v>11618</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6084</v>
+        <v>5632</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>20962</v>
+        <v>20893</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03479516515740901</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.01822166787945408</v>
+        <v>0.01686799995787494</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0627770067488152</v>
+        <v>0.06257128833073991</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>15</v>
@@ -2585,19 +2585,19 @@
         <v>17848</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10820</v>
+        <v>10254</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>28940</v>
+        <v>27642</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03282144167080733</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0198971524805146</v>
+        <v>0.01885724286843839</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05321975625898126</v>
+        <v>0.05083283284380009</v>
       </c>
     </row>
     <row r="30">
@@ -2614,19 +2614,19 @@
         <v>50399</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>39731</v>
+        <v>39013</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>63419</v>
+        <v>62345</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2401291919689383</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1893029339058878</v>
+        <v>0.1858799474221332</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3021652765888098</v>
+        <v>0.2970477663037628</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>82</v>
@@ -2635,19 +2635,19 @@
         <v>93511</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>75879</v>
+        <v>77397</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>111037</v>
+        <v>110123</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.280049757643605</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2272453628420509</v>
+        <v>0.2317904654410416</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3325367119022428</v>
+        <v>0.3297996288515518</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>134</v>
@@ -2656,19 +2656,19 @@
         <v>143910</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>124552</v>
+        <v>122334</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>166382</v>
+        <v>166379</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2646419109337364</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.229044519131284</v>
+        <v>0.2249647652807737</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3059664731458385</v>
+        <v>0.3059616045608096</v>
       </c>
     </row>
     <row r="31">
@@ -2760,19 +2760,19 @@
         <v>2715313</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2673755</v>
+        <v>2669091</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2759859</v>
+        <v>2759283</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8289362759508531</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.8162495937884396</v>
+        <v>0.8148255909736249</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.842535463112646</v>
+        <v>0.8423597073718442</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2493</v>
@@ -2781,19 +2781,19 @@
         <v>2554248</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2506081</v>
+        <v>2503316</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2607173</v>
+        <v>2602559</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7560846549047984</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7418266308912977</v>
+        <v>0.7410080963009938</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7717508436882775</v>
+        <v>0.7703850428792802</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5157</v>
@@ -2802,19 +2802,19 @@
         <v>5269560</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5205201</v>
+        <v>5197198</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5338925</v>
+        <v>5330530</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7919488073880083</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7822765157755485</v>
+        <v>0.7810737510532103</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8023734545485869</v>
+        <v>0.8011118147764028</v>
       </c>
     </row>
     <row r="33">
@@ -2831,19 +2831,19 @@
         <v>19609</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>12347</v>
+        <v>11959</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>30191</v>
+        <v>30255</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.005986424383097811</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003769199477577419</v>
+        <v>0.003650850036686936</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.009216670890448026</v>
+        <v>0.009236301165427292</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>34</v>
@@ -2852,19 +2852,19 @@
         <v>35452</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>25436</v>
+        <v>24304</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>50265</v>
+        <v>47459</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01049424030612753</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.007529375387455925</v>
+        <v>0.007194315539667333</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01487886508034444</v>
+        <v>0.01404822865264461</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>53</v>
@@ -2873,19 +2873,19 @@
         <v>55062</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>41149</v>
+        <v>42109</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>71911</v>
+        <v>72503</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.008275085875403508</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.006184107365256673</v>
+        <v>0.006328429245140496</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01080731373733109</v>
+        <v>0.01089627156965744</v>
       </c>
     </row>
     <row r="34">
@@ -2902,19 +2902,19 @@
         <v>540737</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>499109</v>
+        <v>495496</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>583781</v>
+        <v>586672</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1650772996660492</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1523689420137543</v>
+        <v>0.1512659867321313</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1782180121618932</v>
+        <v>0.1791005127716076</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>769</v>
@@ -2923,19 +2923,19 @@
         <v>788556</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>736954</v>
+        <v>741191</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>837025</v>
+        <v>837995</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2334211047890741</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2181462345375177</v>
+        <v>0.2194003834665705</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2477682022718345</v>
+        <v>0.2480555508236792</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1299</v>
@@ -2944,19 +2944,19 @@
         <v>1329293</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1263304</v>
+        <v>1263011</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1392824</v>
+        <v>1392358</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1997761067365882</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1898587547619466</v>
+        <v>0.1898146518732342</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2093240099733729</v>
+        <v>0.2092539484300871</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>343699</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>325623</v>
+        <v>325171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>360326</v>
+        <v>362464</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7583970367043851</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7185102839108358</v>
+        <v>0.7175134950119755</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7950842086569447</v>
+        <v>0.7998029850702287</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>295</v>
@@ -3312,19 +3312,19 @@
         <v>301117</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>281836</v>
+        <v>282531</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>319852</v>
+        <v>320599</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6998973948006924</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6550827322067657</v>
+        <v>0.6566971541784286</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7434433166720638</v>
+        <v>0.7451794684687364</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>631</v>
@@ -3333,19 +3333,19 @@
         <v>644816</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>619254</v>
+        <v>615487</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>671011</v>
+        <v>669386</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.729907481444087</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7009716449147989</v>
+        <v>0.6967080403040048</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7595585960183281</v>
+        <v>0.7577188649435237</v>
       </c>
     </row>
     <row r="5">
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6399</v>
+        <v>5573</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004024680656542903</v>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01412064203065964</v>
+        <v>0.0122979859804742</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4512</v>
+        <v>4973</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.00230576908857769</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01048632462300922</v>
+        <v>0.01155911561976996</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -3407,16 +3407,16 @@
         <v>871</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7490</v>
+        <v>7582</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.00318756397497875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0009859104462392179</v>
+        <v>0.0009864186343183608</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008478405114541024</v>
+        <v>0.008582005192146518</v>
       </c>
     </row>
     <row r="6">
@@ -3433,19 +3433,19 @@
         <v>107669</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>91209</v>
+        <v>89222</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>126105</v>
+        <v>126384</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.237578282639072</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2012591707462977</v>
+        <v>0.196874118838967</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.278258820486487</v>
+        <v>0.2788760129291487</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>125</v>
@@ -3454,19 +3454,19 @@
         <v>128121</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>110160</v>
+        <v>108504</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>147384</v>
+        <v>146763</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2977968361107299</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2560492894740457</v>
+        <v>0.2521999782544354</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3425691210488166</v>
+        <v>0.3411279722145427</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>232</v>
@@ -3475,19 +3475,19 @@
         <v>235790</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>210306</v>
+        <v>212126</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>261669</v>
+        <v>264972</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2669049545809342</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2380581457834006</v>
+        <v>0.2401187366847448</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2961998359367158</v>
+        <v>0.2999378270599221</v>
       </c>
     </row>
     <row r="7">
@@ -3579,19 +3579,19 @@
         <v>524021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>499936</v>
+        <v>498963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>545132</v>
+        <v>547304</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7626701955850324</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7276166386349999</v>
+        <v>0.7262007097261898</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.793396095961811</v>
+        <v>0.7965569155979403</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>376</v>
@@ -3600,19 +3600,19 @@
         <v>396827</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>368980</v>
+        <v>371598</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>420883</v>
+        <v>419540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6512968605363255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6055933237375793</v>
+        <v>0.6098903012506249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6907803313753424</v>
+        <v>0.6885745315347057</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>885</v>
@@ -3621,19 +3621,19 @@
         <v>920848</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>884929</v>
+        <v>888581</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>954345</v>
+        <v>954179</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7103255006708323</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6826187383531203</v>
+        <v>0.6854354070906438</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7361646565601914</v>
+        <v>0.7360369341346419</v>
       </c>
     </row>
     <row r="9">
@@ -3650,19 +3650,19 @@
         <v>4754</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1796</v>
+        <v>1812</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10391</v>
+        <v>11357</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.006918905479892559</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.002613939501618457</v>
+        <v>0.002637304668945459</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01512378041181138</v>
+        <v>0.01652926861874433</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -3671,19 +3671,19 @@
         <v>3861</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1129</v>
+        <v>906</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12640</v>
+        <v>10612</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.006336567195833064</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001853260072291136</v>
+        <v>0.001486909458517302</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02074631966847484</v>
+        <v>0.0174171969452536</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -3692,19 +3692,19 @@
         <v>8615</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3938</v>
+        <v>3830</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16341</v>
+        <v>16459</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.006645210525865887</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.003037720279370648</v>
+        <v>0.002954229821890279</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01260523566992299</v>
+        <v>0.01269621950989244</v>
       </c>
     </row>
     <row r="10">
@@ -3721,19 +3721,19 @@
         <v>158312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>137289</v>
+        <v>135151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>182582</v>
+        <v>182179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2304108989350751</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1998127015144282</v>
+        <v>0.1967011617368354</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2657334802579509</v>
+        <v>0.2651475869161992</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>191</v>
@@ -3742,19 +3742,19 @@
         <v>208600</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>184708</v>
+        <v>185480</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>235481</v>
+        <v>233570</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3423665722678415</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3031549205109589</v>
+        <v>0.3044206548291047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3864861908516723</v>
+        <v>0.3833491347253647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>344</v>
@@ -3763,19 +3763,19 @@
         <v>366912</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>333907</v>
+        <v>334356</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>402950</v>
+        <v>400868</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2830292888033018</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2575700314966867</v>
+        <v>0.2579162339475158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.310828180372008</v>
+        <v>0.3092228734809939</v>
       </c>
     </row>
     <row r="11">
@@ -3867,19 +3867,19 @@
         <v>555419</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>534635</v>
+        <v>533086</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>575564</v>
+        <v>576692</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8154305346177694</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7849165273298933</v>
+        <v>0.7826423113408068</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8450058453851924</v>
+        <v>0.8466623587693846</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>508</v>
@@ -3888,19 +3888,19 @@
         <v>540169</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>513270</v>
+        <v>515683</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>561446</v>
+        <v>563025</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7611529971987652</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.723250211848857</v>
+        <v>0.7266498310698613</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7911347429629242</v>
+        <v>0.7933598145889252</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1043</v>
@@ -3909,19 +3909,19 @@
         <v>1095587</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1062836</v>
+        <v>1060519</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1126504</v>
+        <v>1124257</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7877349475308609</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7641863937319484</v>
+        <v>0.762520617508238</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8099644073374814</v>
+        <v>0.8083489637014611</v>
       </c>
     </row>
     <row r="13">
@@ -3938,19 +3938,19 @@
         <v>6335</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2606</v>
+        <v>2778</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11733</v>
+        <v>13578</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009300918121574936</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003826330808584319</v>
+        <v>0.00407819437126457</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01722571383232801</v>
+        <v>0.01993454472470875</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6725</v>
+        <v>7320</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.003025012348040672</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009476209369750289</v>
+        <v>0.01031513118861266</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -3980,19 +3980,19 @@
         <v>8482</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3778</v>
+        <v>3961</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15567</v>
+        <v>15543</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006098582437876593</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002716052322998023</v>
+        <v>0.002847706970829455</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01119263243824847</v>
+        <v>0.01117576962761597</v>
       </c>
     </row>
     <row r="14">
@@ -4009,19 +4009,19 @@
         <v>119382</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100232</v>
+        <v>97848</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>139423</v>
+        <v>140734</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1752685472606557</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1471545389462085</v>
+        <v>0.143654831444802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2046924731605078</v>
+        <v>0.2066167887341375</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>156</v>
@@ -4030,19 +4030,19 @@
         <v>167356</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>145494</v>
+        <v>144152</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>194048</v>
+        <v>191085</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2358219904531942</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2050164137574538</v>
+        <v>0.2031255233117112</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2734338998449747</v>
+        <v>0.2692575347281356</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>264</v>
@@ -4051,19 +4051,19 @@
         <v>286738</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>256825</v>
+        <v>258298</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>319890</v>
+        <v>321293</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2061664700312624</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1846591935730615</v>
+        <v>0.1857180463298689</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2300032068925391</v>
+        <v>0.2310122752020677</v>
       </c>
     </row>
     <row r="15">
@@ -4155,19 +4155,19 @@
         <v>515744</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>496566</v>
+        <v>497224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>533902</v>
+        <v>533278</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8391315073485824</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8079267379499736</v>
+        <v>0.8089986847475181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.868674753972376</v>
+        <v>0.8676596148785386</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>426</v>
@@ -4176,19 +4176,19 @@
         <v>485387</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>463176</v>
+        <v>461046</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>506288</v>
+        <v>506924</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7889389869894553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.752837125301143</v>
+        <v>0.7493762496771247</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8229120862651529</v>
+        <v>0.8239455814667774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>882</v>
@@ -4197,19 +4197,19 @@
         <v>1001131</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>970234</v>
+        <v>973950</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1028182</v>
+        <v>1030009</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8140225240933465</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.788899802101702</v>
+        <v>0.7919216774500223</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8360175164761126</v>
+        <v>0.8375030732369347</v>
       </c>
     </row>
     <row r="17">
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6380</v>
+        <v>7220</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.003418692796937093</v>
@@ -4238,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01037996001270797</v>
+        <v>0.01174673862745366</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -4247,19 +4247,19 @@
         <v>3214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8844</v>
+        <v>8602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.005224213973375144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001644736002649556</v>
+        <v>0.001646943518341457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01437437698352383</v>
+        <v>0.01398162226890236</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -4268,19 +4268,19 @@
         <v>5315</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2090</v>
+        <v>2093</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>11780</v>
+        <v>13155</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.004321911058578205</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.001699069933046535</v>
+        <v>0.001702096614701982</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009578110061330506</v>
+        <v>0.01069669755206851</v>
       </c>
     </row>
     <row r="18">
@@ -4297,19 +4297,19 @@
         <v>96771</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>78555</v>
+        <v>78997</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>116699</v>
+        <v>115678</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1574497998544805</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1278114091036538</v>
+        <v>0.1285304711540837</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1898721554960058</v>
+        <v>0.1882122474269003</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>109</v>
@@ -4318,19 +4318,19 @@
         <v>126639</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>106032</v>
+        <v>105985</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>148644</v>
+        <v>150692</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2058367990371696</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1723424694943797</v>
+        <v>0.1722660864140076</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2416037030987512</v>
+        <v>0.2449321174840438</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>199</v>
@@ -4339,19 +4339,19 @@
         <v>223410</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>196599</v>
+        <v>193081</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>254505</v>
+        <v>250604</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1816555648480753</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1598551853950088</v>
+        <v>0.1569945544118695</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2069384417095765</v>
+        <v>0.2037665162494146</v>
       </c>
     </row>
     <row r="19">
@@ -4443,19 +4443,19 @@
         <v>353839</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>337983</v>
+        <v>336826</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>369827</v>
+        <v>369113</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8239749901898478</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.787051612216592</v>
+        <v>0.7843588376342128</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8612062851576842</v>
+        <v>0.8595426107675814</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>308</v>
@@ -4464,19 +4464,19 @@
         <v>343672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>323194</v>
+        <v>326482</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>359048</v>
+        <v>362325</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7674682649484236</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.721737098614618</v>
+        <v>0.7290795776717378</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8018040782121055</v>
+        <v>0.8091228044267883</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>629</v>
@@ -4485,19 +4485,19 @@
         <v>697511</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>671313</v>
+        <v>670633</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>721273</v>
+        <v>720131</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7951299486450609</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7652654204446101</v>
+        <v>0.7644899463630531</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8222175972069551</v>
+        <v>0.8209161723881715</v>
       </c>
     </row>
     <row r="21">
@@ -4514,19 +4514,19 @@
         <v>5418</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1975</v>
+        <v>2042</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>12086</v>
+        <v>12271</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01261559236170103</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.004598969439900407</v>
+        <v>0.004754341277276323</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02814544988606818</v>
+        <v>0.02857547231525052</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -4535,19 +4535,19 @@
         <v>7314</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3146</v>
+        <v>3187</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14817</v>
+        <v>13541</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01633206973383081</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.007025229101916098</v>
+        <v>0.007115977225003343</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03308824258003937</v>
+        <v>0.03023788526412116</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>12</v>
@@ -4556,19 +4556,19 @@
         <v>12731</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7047</v>
+        <v>6365</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>21364</v>
+        <v>21463</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0145127460852857</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.008033531925774967</v>
+        <v>0.007256263038029014</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0243543828276769</v>
+        <v>0.02446714379976307</v>
       </c>
     </row>
     <row r="22">
@@ -4585,19 +4585,19 @@
         <v>70173</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54845</v>
+        <v>56282</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85019</v>
+        <v>86839</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1634094174484512</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1277158730885037</v>
+        <v>0.1310629312489969</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1979818495420168</v>
+        <v>0.2022207446013742</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>91</v>
@@ -4606,19 +4606,19 @@
         <v>96814</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82147</v>
+        <v>78808</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>118042</v>
+        <v>115115</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2161996653177456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1834462407349178</v>
+        <v>0.1759892246228147</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2636035735819883</v>
+        <v>0.257068890821958</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>158</v>
@@ -4627,19 +4627,19 @@
         <v>166987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>143954</v>
+        <v>146427</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>191763</v>
+        <v>194034</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1903573052696534</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1641004871309115</v>
+        <v>0.166920380692074</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2186004415115656</v>
+        <v>0.2211893977333266</v>
       </c>
     </row>
     <row r="23">
@@ -4731,19 +4731,19 @@
         <v>252290</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>234845</v>
+        <v>237844</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>266597</v>
+        <v>265783</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8170369137960523</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7605432055325633</v>
+        <v>0.7702561302855061</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8633716069795851</v>
+        <v>0.8607355961309581</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>253</v>
@@ -4752,19 +4752,19 @@
         <v>261872</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>244270</v>
+        <v>244724</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>277529</v>
+        <v>278282</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7397590219361183</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6900350492069944</v>
+        <v>0.6913182585558429</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7839881475336518</v>
+        <v>0.7861150072098796</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>486</v>
@@ -4773,19 +4773,19 @@
         <v>514161</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>492678</v>
+        <v>489524</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>536633</v>
+        <v>534233</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7757623386901101</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7433486848288671</v>
+        <v>0.7385892897125188</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8096670596716016</v>
+        <v>0.8060464959057547</v>
       </c>
     </row>
     <row r="25">
@@ -4802,19 +4802,19 @@
         <v>2965</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8023</v>
+        <v>8761</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009602124816068907</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003030313032582354</v>
+        <v>0.003089912294546409</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02598178514691447</v>
+        <v>0.02837324591246956</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -4823,19 +4823,19 @@
         <v>7535</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3694</v>
+        <v>2911</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16002</v>
+        <v>15196</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02128589363742606</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01043615105567674</v>
+        <v>0.008222777039214802</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04520295752209875</v>
+        <v>0.04292614086021638</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -4844,19 +4844,19 @@
         <v>10500</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5602</v>
+        <v>4933</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>18968</v>
+        <v>19259</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01584249424296314</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.008451566515652726</v>
+        <v>0.007442700775022478</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02861816611391873</v>
+        <v>0.02905836164707146</v>
       </c>
     </row>
     <row r="26">
@@ -4873,19 +4873,19 @@
         <v>53531</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>39897</v>
+        <v>39950</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72067</v>
+        <v>68762</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1733609613878789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1292074049302719</v>
+        <v>0.129377022967598</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2333866424174759</v>
+        <v>0.2226838633959357</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>84</v>
@@ -4894,19 +4894,19 @@
         <v>84589</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>68843</v>
+        <v>68859</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>102120</v>
+        <v>101520</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2389550844264556</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1944750640951514</v>
+        <v>0.194519536656538</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.288476927685641</v>
+        <v>0.2867815213836595</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>129</v>
@@ -4915,19 +4915,19 @@
         <v>138121</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>116174</v>
+        <v>119387</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>159308</v>
+        <v>161246</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2083951670669267</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1752824009409961</v>
+        <v>0.1801300026359626</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2403631339208891</v>
+        <v>0.243287347871157</v>
       </c>
     </row>
     <row r="27">
@@ -5019,19 +5019,19 @@
         <v>172528</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>157197</v>
+        <v>156036</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>186743</v>
+        <v>188424</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6905249386798978</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.629161518169903</v>
+        <v>0.6245146154985309</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7474155422266185</v>
+        <v>0.7541455338603795</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>221</v>
@@ -5040,19 +5040,19 @@
         <v>246688</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>226857</v>
+        <v>227170</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>265887</v>
+        <v>265713</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6341934094837486</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5832108650433844</v>
+        <v>0.5840173606170674</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6835512040962035</v>
+        <v>0.6831027637307155</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>374</v>
@@ -5061,19 +5061,19 @@
         <v>419216</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>391761</v>
+        <v>392882</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>442328</v>
+        <v>444483</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6562250672430351</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.613248067264386</v>
+        <v>0.6150023664033248</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.692402807503003</v>
+        <v>0.6957764481702619</v>
       </c>
     </row>
     <row r="29">
@@ -5090,19 +5090,19 @@
         <v>11668</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6178</v>
+        <v>6335</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>20465</v>
+        <v>21092</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04669858819379487</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02472570407949304</v>
+        <v>0.02535445038821385</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0819088942139832</v>
+        <v>0.08441932867882411</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>26</v>
@@ -5111,19 +5111,19 @@
         <v>28228</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19200</v>
+        <v>19457</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39103</v>
+        <v>42476</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0725687993779344</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04936084749474666</v>
+        <v>0.05002007709196368</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1005260771751309</v>
+        <v>0.1091997026933558</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -5132,19 +5132,19 @@
         <v>39895</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28225</v>
+        <v>28492</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>54969</v>
+        <v>53759</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06245077760393307</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04418198408125588</v>
+        <v>0.04460043503363453</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.08604585421881256</v>
+        <v>0.08415236712458438</v>
       </c>
     </row>
     <row r="30">
@@ -5161,19 +5161,19 @@
         <v>65655</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>52665</v>
+        <v>51247</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80832</v>
+        <v>81788</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2627764731263073</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2107840918792078</v>
+        <v>0.2051085497650015</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3235200483972164</v>
+        <v>0.3273481058991531</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>103</v>
@@ -5182,19 +5182,19 @@
         <v>114063</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>95484</v>
+        <v>95847</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>132492</v>
+        <v>133462</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.293237791138317</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.245473838473312</v>
+        <v>0.2464053385177452</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3406149419137157</v>
+        <v>0.3431087964982542</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>161</v>
@@ -5203,19 +5203,19 @@
         <v>179718</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>157768</v>
+        <v>156218</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>206592</v>
+        <v>205662</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2813241551530318</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2469638782442111</v>
+        <v>0.2445373454738042</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3233909949121424</v>
+        <v>0.3219356142942034</v>
       </c>
     </row>
     <row r="31">
@@ -5307,19 +5307,19 @@
         <v>2717540</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2662515</v>
+        <v>2664683</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2765074</v>
+        <v>2765127</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7936514946802476</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7775812855167464</v>
+        <v>0.7782147144136183</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8075336917712382</v>
+        <v>0.8075490872542405</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2387</v>
@@ -5328,19 +5328,19 @@
         <v>2575731</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2520822</v>
+        <v>2517569</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2627544</v>
+        <v>2627744</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7244960675065899</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7090514060273183</v>
+        <v>0.7081363949668995</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7390700904551096</v>
+        <v>0.7391263056454281</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>4930</v>
@@ -5349,19 +5349,19 @@
         <v>5293271</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5219663</v>
+        <v>5217323</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5360063</v>
+        <v>5367491</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7584242425707457</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7478775776269975</v>
+        <v>0.7475422728533464</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7679942501646635</v>
+        <v>0.769058538423013</v>
       </c>
     </row>
     <row r="33">
@@ -5378,19 +5378,19 @@
         <v>35064</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>23787</v>
+        <v>25021</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>46418</v>
+        <v>48915</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01024048064310536</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.006947008204390366</v>
+        <v>0.007307401974005845</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01355612950779794</v>
+        <v>0.01428537708207753</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>49</v>
@@ -5399,19 +5399,19 @@
         <v>53290</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>38823</v>
+        <v>40253</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>69473</v>
+        <v>69218</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01498931680829875</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.01091996016910867</v>
+        <v>0.01132232308850719</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01954132591285717</v>
+        <v>0.019469436391528</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>84</v>
@@ -5420,19 +5420,19 @@
         <v>88354</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>71804</v>
+        <v>70476</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>108757</v>
+        <v>108731</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01265950190658344</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01028808195757898</v>
+        <v>0.01009786428738594</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0155827728985194</v>
+        <v>0.01557912841514767</v>
       </c>
     </row>
     <row r="34">
@@ -5449,19 +5449,19 @@
         <v>671493</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>624568</v>
+        <v>621644</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>723387</v>
+        <v>719378</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.196108024676647</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1824035917719971</v>
+        <v>0.1815498229117096</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2112634758072792</v>
+        <v>0.2100926551445286</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>859</v>
@@ -5470,19 +5470,19 @@
         <v>926182</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>877845</v>
+        <v>877424</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>981177</v>
+        <v>982026</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2605146156851114</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.246918421039296</v>
+        <v>0.2467999264438869</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2759832911163549</v>
+        <v>0.2762221929238725</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1487</v>
@@ -5491,19 +5491,19 @@
         <v>1597675</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1530733</v>
+        <v>1526101</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1677476</v>
+        <v>1669858</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2289162555226709</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2193246536353399</v>
+        <v>0.2186610124078919</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2403502063990601</v>
+        <v>0.2392585758464933</v>
       </c>
     </row>
     <row r="35">
@@ -5838,19 +5838,19 @@
         <v>325908</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306641</v>
+        <v>307334</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>342084</v>
+        <v>343038</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.776964455636761</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7310311878777974</v>
+        <v>0.7326842049876825</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.815527386547128</v>
+        <v>0.8178032914756332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>308</v>
@@ -5859,19 +5859,19 @@
         <v>301472</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>282073</v>
+        <v>283103</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>316450</v>
+        <v>317669</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7617654475638713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7127465235174698</v>
+        <v>0.7153496539422947</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7996116184813128</v>
+        <v>0.8026908068234809</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>615</v>
@@ -5880,19 +5880,19 @@
         <v>627380</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>605700</v>
+        <v>601975</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>651779</v>
+        <v>652946</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7695859587512159</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7429919032404158</v>
+        <v>0.7384224291621786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7995149420248957</v>
+        <v>0.8009470397504717</v>
       </c>
     </row>
     <row r="5">
@@ -5909,19 +5909,19 @@
         <v>7386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3047</v>
+        <v>3036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15881</v>
+        <v>15407</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01760709664082191</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007264499632096372</v>
+        <v>0.007237826221741457</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03785970960155899</v>
+        <v>0.03673123471984931</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -5930,19 +5930,19 @@
         <v>3773</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>996</v>
+        <v>952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9575</v>
+        <v>8960</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009534650971119434</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002517043899300508</v>
+        <v>0.00240589592424584</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02419312062530359</v>
+        <v>0.02264111582598952</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>11</v>
@@ -5951,19 +5951,19 @@
         <v>11159</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5726</v>
+        <v>5870</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>19074</v>
+        <v>20049</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0136882543751301</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.007024187018653895</v>
+        <v>0.007200447564893155</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02339703396715119</v>
+        <v>0.02459284998591287</v>
       </c>
     </row>
     <row r="6">
@@ -5980,19 +5980,19 @@
         <v>86170</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>70258</v>
+        <v>69155</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>104966</v>
+        <v>105640</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2054284477224171</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1674947149508113</v>
+        <v>0.1648665031660967</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2502398544326301</v>
+        <v>0.2518449451160291</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>92</v>
@@ -6001,19 +6001,19 @@
         <v>90509</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>75328</v>
+        <v>75224</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>110303</v>
+        <v>107870</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2286999014650093</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1903400342202536</v>
+        <v>0.1900765582361129</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2787147115043494</v>
+        <v>0.2725665512113252</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>171</v>
@@ -6022,19 +6022,19 @@
         <v>176679</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>153781</v>
+        <v>152510</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>198810</v>
+        <v>201879</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2167257868736539</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1886377819334341</v>
+        <v>0.1870783783480683</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2438734239626549</v>
+        <v>0.247638470355408</v>
       </c>
     </row>
     <row r="7">
@@ -6126,19 +6126,19 @@
         <v>490707</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>471054</v>
+        <v>471266</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>507608</v>
+        <v>506328</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8355538447683052</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.802089755035005</v>
+        <v>0.802450232182545</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8643321488836343</v>
+        <v>0.8621516965673178</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>437</v>
@@ -6147,19 +6147,19 @@
         <v>422139</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>402947</v>
+        <v>401395</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>443057</v>
+        <v>443750</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7502577413855407</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7161477131301477</v>
+        <v>0.713389265963141</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7874341170633156</v>
+        <v>0.7886664181877391</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>910</v>
@@ -6168,19 +6168,19 @@
         <v>912847</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>883755</v>
+        <v>882210</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>938084</v>
+        <v>938081</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7938190627814236</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7685199795374117</v>
+        <v>0.7671761428965772</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8157650284353404</v>
+        <v>0.8157620438443898</v>
       </c>
     </row>
     <row r="9">
@@ -6197,19 +6197,19 @@
         <v>3329</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9053</v>
+        <v>9355</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.005667954069933417</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001606821062338867</v>
+        <v>0.001593947862818574</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.015414338306227</v>
+        <v>0.01592867953186186</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -6218,19 +6218,19 @@
         <v>2797</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>7798</v>
+        <v>8410</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.004970608540192172</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001571428294448994</v>
+        <v>0.001577945735798075</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0138596121114692</v>
+        <v>0.01494712317874208</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -6239,19 +6239,19 @@
         <v>6125</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2698</v>
+        <v>2244</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>12900</v>
+        <v>13095</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.005326747819013891</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.002345942768974343</v>
+        <v>0.001951554521293481</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01121786863132462</v>
+        <v>0.01138775420986075</v>
       </c>
     </row>
     <row r="10">
@@ -6268,19 +6268,19 @@
         <v>93248</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>75819</v>
+        <v>76524</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112074</v>
+        <v>112540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1587782011617614</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1291011533112313</v>
+        <v>0.1303007578491736</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1908336100571573</v>
+        <v>0.1916284757643598</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>138</v>
@@ -6289,19 +6289,19 @@
         <v>137723</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>116502</v>
+        <v>115909</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>156976</v>
+        <v>157925</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2447716500742671</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2070556608439602</v>
+        <v>0.2060015887676926</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.27898960569012</v>
+        <v>0.2806754084572052</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>226</v>
@@ -6310,19 +6310,19 @@
         <v>230971</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205331</v>
+        <v>206418</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>258301</v>
+        <v>260893</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2008541893995626</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1785576732941409</v>
+        <v>0.1795025625031849</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2246206359596252</v>
+        <v>0.2268748601933479</v>
       </c>
     </row>
     <row r="11">
@@ -6414,19 +6414,19 @@
         <v>559085</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>538124</v>
+        <v>536306</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>578490</v>
+        <v>578099</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8387849530436466</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8073380847636166</v>
+        <v>0.8046108450899793</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8678989157634701</v>
+        <v>0.8673123872224154</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>526</v>
@@ -6435,19 +6435,19 @@
         <v>518326</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>494036</v>
+        <v>496343</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>537840</v>
+        <v>538701</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7847267786401151</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7479528841204188</v>
+        <v>0.7514455700511039</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8142702808629851</v>
+        <v>0.81557294731132</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1064</v>
@@ -6456,19 +6456,19 @@
         <v>1077411</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1045136</v>
+        <v>1048416</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1104878</v>
+        <v>1105250</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.811878531396595</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7875582949135067</v>
+        <v>0.7900297332113719</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8325761319208281</v>
+        <v>0.832856556794999</v>
       </c>
     </row>
     <row r="13">
@@ -6485,19 +6485,19 @@
         <v>5779</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1885</v>
+        <v>1975</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>14106</v>
+        <v>13486</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008670237021300705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002828537891288873</v>
+        <v>0.00296313758970796</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02116315479575641</v>
+        <v>0.02023268773967962</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -6509,7 +6509,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5470</v>
+        <v>5386</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002729920583999519</v>
@@ -6518,7 +6518,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.008281671595133405</v>
+        <v>0.008154448055112716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -6527,19 +6527,19 @@
         <v>7582</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3133</v>
+        <v>3360</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15156</v>
+        <v>15552</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005713558211065205</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002360750017815384</v>
+        <v>0.002532226484983867</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01142085442570379</v>
+        <v>0.01171950883811656</v>
       </c>
     </row>
     <row r="14">
@@ -6556,19 +6556,19 @@
         <v>101677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82736</v>
+        <v>83552</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>122524</v>
+        <v>122964</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1525448099350527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1241274426244972</v>
+        <v>0.1253511939525879</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1838200229348231</v>
+        <v>0.1844802325999715</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>136</v>
@@ -6577,19 +6577,19 @@
         <v>140389</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>121067</v>
+        <v>120441</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>165043</v>
+        <v>163175</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2125433007758854</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1832902885294893</v>
+        <v>0.1823431979240872</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2498688149642928</v>
+        <v>0.2470404665818995</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>229</v>
@@ -6598,19 +6598,19 @@
         <v>242066</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>215578</v>
+        <v>214265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>273299</v>
+        <v>271464</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1824079103923397</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1624476440393661</v>
+        <v>0.1614584645893206</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2059431634767497</v>
+        <v>0.2045608325178948</v>
       </c>
     </row>
     <row r="15">
@@ -6702,19 +6702,19 @@
         <v>552745</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>533941</v>
+        <v>530780</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>570659</v>
+        <v>569202</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8582796664321048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8290823247593287</v>
+        <v>0.8241735121244208</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8860952511699897</v>
+        <v>0.883834210345148</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>495</v>
@@ -6723,19 +6723,19 @@
         <v>532381</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>511287</v>
+        <v>509424</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>549399</v>
+        <v>551893</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.820211783545561</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.78771450585182</v>
+        <v>0.7848433199988913</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8464307363177119</v>
+        <v>0.850273992895759</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>993</v>
@@ -6744,19 +6744,19 @@
         <v>1085126</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1054438</v>
+        <v>1057779</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1109259</v>
+        <v>1110796</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8391712171039174</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8154393199792617</v>
+        <v>0.8180231511597437</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8578346182584046</v>
+        <v>0.8590229486514923</v>
       </c>
     </row>
     <row r="17">
@@ -6773,19 +6773,19 @@
         <v>7342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3124</v>
+        <v>3171</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14460</v>
+        <v>14169</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01140086958391083</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.004851506015096316</v>
+        <v>0.004923984707487437</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02245358828852378</v>
+        <v>0.02200121174819644</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -6794,19 +6794,19 @@
         <v>12520</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7194</v>
+        <v>6222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21878</v>
+        <v>21320</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01928874035233866</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01108270320768621</v>
+        <v>0.00958558024171751</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03370627348125291</v>
+        <v>0.03284619158135289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>19</v>
@@ -6815,19 +6815,19 @@
         <v>19862</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>12288</v>
+        <v>12360</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29952</v>
+        <v>30270</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01536024340396303</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009502732570846713</v>
+        <v>0.00955834994912976</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0231628073665211</v>
+        <v>0.02340923727620612</v>
       </c>
     </row>
     <row r="18">
@@ -6844,19 +6844,19 @@
         <v>83928</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>65811</v>
+        <v>67086</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>102285</v>
+        <v>104934</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1303194639839843</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.102187980442506</v>
+        <v>0.1041689037157357</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1588245879724711</v>
+        <v>0.1629367348253956</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>95</v>
@@ -6865,19 +6865,19 @@
         <v>104177</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>87288</v>
+        <v>85197</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>124711</v>
+        <v>126815</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1604994761021004</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.134480134543776</v>
+        <v>0.1312588236710905</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1921357600719119</v>
+        <v>0.1953775702993347</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>170</v>
@@ -6886,19 +6886,19 @@
         <v>188104</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>162787</v>
+        <v>162341</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>217425</v>
+        <v>215001</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1454685394921196</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1258898677922546</v>
+        <v>0.125545079018424</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1681437025578598</v>
+        <v>0.1662687641972055</v>
       </c>
     </row>
     <row r="19">
@@ -6990,19 +6990,19 @@
         <v>402701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>385235</v>
+        <v>385601</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>417221</v>
+        <v>418853</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8460260985210386</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8093329324549148</v>
+        <v>0.8101008682216744</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8765321268571327</v>
+        <v>0.8799596425060557</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>354</v>
@@ -7011,19 +7011,19 @@
         <v>405030</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>385058</v>
+        <v>383789</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>421044</v>
+        <v>421672</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8181921085508984</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7778468658852429</v>
+        <v>0.7752840424872002</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8505433585132529</v>
+        <v>0.8518102755893887</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>710</v>
@@ -7032,19 +7032,19 @@
         <v>807730</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>782215</v>
+        <v>782716</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>831204</v>
+        <v>830326</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8318362333155725</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8055597088177542</v>
+        <v>0.8060748305344019</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8560104090399767</v>
+        <v>0.8551062175980448</v>
       </c>
     </row>
     <row r="21">
@@ -7061,19 +7061,19 @@
         <v>8090</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3409</v>
+        <v>3316</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16263</v>
+        <v>16795</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01699597373581639</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.00716163507631607</v>
+        <v>0.006966927548374196</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03416611278119605</v>
+        <v>0.03528418888456312</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -7082,19 +7082,19 @@
         <v>6706</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2287</v>
+        <v>2268</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>13538</v>
+        <v>13905</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01354742409492432</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004619610759019117</v>
+        <v>0.004580881734379985</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02734797895957352</v>
+        <v>0.02808858474084912</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -7103,19 +7103,19 @@
         <v>14796</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>7695</v>
+        <v>8271</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25377</v>
+        <v>24258</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01523789109616922</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.007925036489994345</v>
+        <v>0.008518174353666438</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.0261346223395695</v>
+        <v>0.02498167555144991</v>
       </c>
     </row>
     <row r="22">
@@ -7132,19 +7132,19 @@
         <v>65200</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51501</v>
+        <v>50179</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>83114</v>
+        <v>81696</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.136977927743145</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1081981299669251</v>
+        <v>0.1054198954285798</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1746125914353718</v>
+        <v>0.1716328726102934</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>72</v>
@@ -7153,19 +7153,19 @@
         <v>83294</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67240</v>
+        <v>67810</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>102282</v>
+        <v>102705</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1682604673541773</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1358306723923758</v>
+        <v>0.136980612508668</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2066169701798218</v>
+        <v>0.2074730745354866</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>131</v>
@@ -7174,19 +7174,19 @@
         <v>148494</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>126380</v>
+        <v>127359</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>174285</v>
+        <v>173736</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1529258755882582</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1301512759208691</v>
+        <v>0.1311597567304359</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1794862129351078</v>
+        <v>0.1789206266885196</v>
       </c>
     </row>
     <row r="23">
@@ -7278,19 +7278,19 @@
         <v>276431</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>262046</v>
+        <v>260560</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>290916</v>
+        <v>289586</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8291464077529647</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7860008284931858</v>
+        <v>0.7815418957426573</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8725943642275379</v>
+        <v>0.8686051814646836</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>278</v>
@@ -7299,19 +7299,19 @@
         <v>296544</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>279952</v>
+        <v>278136</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>311122</v>
+        <v>310729</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7883734366628316</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7442639034146101</v>
+        <v>0.739435236109957</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.8271318672376915</v>
+        <v>0.8260866277665471</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>548</v>
@@ -7320,19 +7320,19 @@
         <v>572974</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>550585</v>
+        <v>550295</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>592540</v>
+        <v>593266</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.8075315217088479</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7759768709502163</v>
+        <v>0.7755678024417696</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8351061042817574</v>
+        <v>0.8361293751105381</v>
       </c>
     </row>
     <row r="25">
@@ -7349,19 +7349,19 @@
         <v>6873</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2855</v>
+        <v>2960</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12644</v>
+        <v>13741</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02061424309899488</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008564538413948209</v>
+        <v>0.008877606082372728</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03792433943847532</v>
+        <v>0.04121557649903814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -7370,19 +7370,19 @@
         <v>10364</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>5142</v>
+        <v>4556</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>18676</v>
+        <v>18608</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02755420891250982</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01367098249634088</v>
+        <v>0.01211197688450763</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04965020395941442</v>
+        <v>0.04946993178410306</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>16</v>
@@ -7391,19 +7391,19 @@
         <v>17237</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10492</v>
+        <v>10327</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>27171</v>
+        <v>26803</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02429331200661964</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01478650235058369</v>
+        <v>0.01455482294397844</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03829383373223381</v>
+        <v>0.03777574669198414</v>
       </c>
     </row>
     <row r="26">
@@ -7420,19 +7420,19 @@
         <v>50089</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>37499</v>
+        <v>37360</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>64317</v>
+        <v>63741</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1502393491480404</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1124786975476159</v>
+        <v>0.1120598253254929</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1929181468792459</v>
+        <v>0.1911901299421975</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>66</v>
@@ -7441,19 +7441,19 @@
         <v>69238</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>55920</v>
+        <v>55499</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>84543</v>
+        <v>86428</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1840723544246586</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1486665624876123</v>
+        <v>0.1475464348207167</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2247606506111789</v>
+        <v>0.2297733369251469</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -7462,19 +7462,19 @@
         <v>119327</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>100112</v>
+        <v>99043</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>139825</v>
+        <v>141177</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1681751662845325</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1410950859348969</v>
+        <v>0.1395875056414327</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1970642121643115</v>
+        <v>0.1989707609924865</v>
       </c>
     </row>
     <row r="27">
@@ -7566,19 +7566,19 @@
         <v>211518</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>199677</v>
+        <v>198619</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>221915</v>
+        <v>221858</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8230336031448855</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7769588164843093</v>
+        <v>0.7728444916700338</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.863489504245686</v>
+        <v>0.8632680517624967</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>227</v>
@@ -7587,19 +7587,19 @@
         <v>300712</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>282449</v>
+        <v>282201</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>318899</v>
+        <v>318699</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7538563440642672</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7080740255324125</v>
+        <v>0.7074510373634038</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7994491258814782</v>
+        <v>0.7989480707671893</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>476</v>
@@ -7608,19 +7608,19 @@
         <v>512230</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>487691</v>
+        <v>488871</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>533530</v>
+        <v>534543</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.7809618901539249</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7435498928992633</v>
+        <v>0.7453482884118547</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8134375046940829</v>
+        <v>0.8149811322828053</v>
       </c>
     </row>
     <row r="29">
@@ -7637,19 +7637,19 @@
         <v>7409</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3424</v>
+        <v>3489</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13331</v>
+        <v>13987</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02883086534094077</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01332356021539126</v>
+        <v>0.01357580122296853</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05187311612909658</v>
+        <v>0.05442405526076375</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>17</v>
@@ -7658,19 +7658,19 @@
         <v>22592</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13866</v>
+        <v>13266</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>35260</v>
+        <v>34401</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.05663574252673572</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03476131020270624</v>
+        <v>0.03325668683206362</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.08839336946915347</v>
+        <v>0.08623899795365184</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>26</v>
@@ -7679,19 +7679,19 @@
         <v>30001</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>19763</v>
+        <v>18962</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>42916</v>
+        <v>42956</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04574102958070059</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03013190209418146</v>
+        <v>0.02891034640573911</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.06543159916917556</v>
+        <v>0.06549179753619591</v>
       </c>
     </row>
     <row r="30">
@@ -7708,19 +7708,19 @@
         <v>38071</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>27900</v>
+        <v>28545</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>49147</v>
+        <v>51192</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1481355315141737</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1085612014779313</v>
+        <v>0.1110718769725509</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1912343704905674</v>
+        <v>0.1991938772227325</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>56</v>
@@ -7729,19 +7729,19 @@
         <v>75594</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>58586</v>
+        <v>59556</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>94105</v>
+        <v>93761</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1895079134089971</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1468698446971613</v>
+        <v>0.1493005157869161</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2359129993157001</v>
+        <v>0.2350499248686294</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>100</v>
@@ -7750,19 +7750,19 @@
         <v>113665</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>94767</v>
+        <v>93986</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>134551</v>
+        <v>135756</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1732970802653745</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1444849918873125</v>
+        <v>0.1432943840823449</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2051410416046066</v>
+        <v>0.2069779274356535</v>
       </c>
     </row>
     <row r="31">
@@ -7854,19 +7854,19 @@
         <v>2819094</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2769810</v>
+        <v>2778248</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2860641</v>
+        <v>2863549</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.8331435114725148</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.818578252671554</v>
+        <v>0.8210719993468595</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8454220987519014</v>
+        <v>0.8462815131072912</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2625</v>
@@ -7875,19 +7875,19 @@
         <v>2776603</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2728867</v>
+        <v>2729400</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2830648</v>
+        <v>2827437</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.784776230876526</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.771284143111077</v>
+        <v>0.7714347178646216</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.8000513122924281</v>
+        <v>0.7991437292924066</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>5316</v>
@@ -7896,19 +7896,19 @@
         <v>5595698</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5524459</v>
+        <v>5529108</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5658066</v>
+        <v>5661187</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.8084204252963684</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7981283700614563</v>
+        <v>0.7988001463085928</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.8174308753741188</v>
+        <v>0.8178817728497383</v>
       </c>
     </row>
     <row r="33">
@@ -7925,19 +7925,19 @@
         <v>46208</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>33896</v>
+        <v>33970</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>62177</v>
+        <v>60386</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.01365601796473839</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01001749320454418</v>
+        <v>0.01003929829323047</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01837544560433826</v>
+        <v>0.01784612492263336</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>53</v>
@@ -7946,19 +7946,19 @@
         <v>60556</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>46114</v>
+        <v>46596</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>78006</v>
+        <v>79520</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.01711543776173046</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0130335872139232</v>
+        <v>0.01316976069641997</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.0220475783360251</v>
+        <v>0.02247545123907244</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>98</v>
@@ -7967,19 +7967,19 @@
         <v>106763</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>87465</v>
+        <v>87956</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>128809</v>
+        <v>131033</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.01542431117259748</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.01263618124289315</v>
+        <v>0.01270709662095822</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01860922313510311</v>
+        <v>0.01893062890171053</v>
       </c>
     </row>
     <row r="34">
@@ -7996,19 +7996,19 @@
         <v>518382</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>474603</v>
+        <v>474744</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>563374</v>
+        <v>560151</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1532004705627469</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1402621965147369</v>
+        <v>0.1403039123107307</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1664970864091792</v>
+        <v>0.1655446667567533</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>655</v>
@@ -8017,19 +8017,19 @@
         <v>700924</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>651398</v>
+        <v>649577</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>749762</v>
+        <v>746755</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1981083313617435</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1841104503760874</v>
+        <v>0.1835956677093142</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2119117943481831</v>
+        <v>0.2110619624449732</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1140</v>
@@ -8038,19 +8038,19 @@
         <v>1219306</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1157092</v>
+        <v>1161597</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1289152</v>
+        <v>1288494</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1761552635310341</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1671671715471844</v>
+        <v>0.1678180527265754</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1862461389922756</v>
+        <v>0.1861510934267357</v>
       </c>
     </row>
     <row r="35">
@@ -8385,19 +8385,19 @@
         <v>334136</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306592</v>
+        <v>305338</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>356263</v>
+        <v>356051</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.8193771950320877</v>
+        <v>0.8193771950320874</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7518322113623912</v>
+        <v>0.7487581343624509</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8736363423504558</v>
+        <v>0.873116493094383</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>153</v>
@@ -8406,19 +8406,19 @@
         <v>265249</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>240543</v>
+        <v>243480</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>286090</v>
+        <v>288332</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.736215039010944</v>
+        <v>0.7362150390109439</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6676395135945044</v>
+        <v>0.6757936064304038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7940597485614268</v>
+        <v>0.8002829568936628</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>298</v>
@@ -8427,19 +8427,19 @@
         <v>599386</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>561376</v>
+        <v>561813</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>632422</v>
+        <v>633378</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7803678674039295</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7308811691043487</v>
+        <v>0.731450841914567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8233795913404983</v>
+        <v>0.8246241354868102</v>
       </c>
     </row>
     <row r="5">
@@ -8472,7 +8472,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6983</v>
+        <v>7468</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.003477717349891818</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01938117923100325</v>
+        <v>0.02072658257016493</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7020</v>
+        <v>7548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001631311909055938</v>
@@ -8502,7 +8502,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.009139739326252059</v>
+        <v>0.00982757266548346</v>
       </c>
     </row>
     <row r="6">
@@ -8519,19 +8519,19 @@
         <v>73657</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>51530</v>
+        <v>51742</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>101201</v>
+        <v>102455</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1806228049679125</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1263636576495443</v>
+        <v>0.1268835069056169</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2481677886376087</v>
+        <v>0.2512418656375489</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>52</v>
@@ -8540,19 +8540,19 @@
         <v>93786</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>72665</v>
+        <v>71669</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>117586</v>
+        <v>116603</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2603072436391644</v>
+        <v>0.2603072436391643</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2016856423267797</v>
+        <v>0.1989224751714428</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3263663229620445</v>
+        <v>0.3236392041739206</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>79</v>
@@ -8561,19 +8561,19 @@
         <v>167442</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>134370</v>
+        <v>133612</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>204956</v>
+        <v>204939</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2180008206870147</v>
+        <v>0.2180008206870146</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1749418441385841</v>
+        <v>0.1739560143613392</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2668412427367084</v>
+        <v>0.2668200533473801</v>
       </c>
     </row>
     <row r="7">
@@ -8665,19 +8665,19 @@
         <v>379425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>352226</v>
+        <v>352032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>399506</v>
+        <v>400035</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7956233926819697</v>
+        <v>0.7956233926819698</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7385899209303229</v>
+        <v>0.7381826450125933</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8377317325600923</v>
+        <v>0.8388419997297407</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>340</v>
@@ -8686,19 +8686,19 @@
         <v>370563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>349250</v>
+        <v>349113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>391191</v>
+        <v>388771</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.739523220015099</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6969898917616524</v>
+        <v>0.6967163200150912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7806919872475909</v>
+        <v>0.775861377308953</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>581</v>
@@ -8707,19 +8707,19 @@
         <v>749987</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>718489</v>
+        <v>721589</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>778510</v>
+        <v>782712</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7668794113422805</v>
+        <v>0.7668794113422804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7346712669745465</v>
+        <v>0.737841575447643</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7960443791356497</v>
+        <v>0.8003408432530823</v>
       </c>
     </row>
     <row r="9">
@@ -8739,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7092</v>
+        <v>6129</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002520051048353691</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01487154997436128</v>
+        <v>0.01285192502745031</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7260</v>
+        <v>7067</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001228855373447701</v>
@@ -8782,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007423518927115876</v>
+        <v>0.007225795037366597</v>
       </c>
     </row>
     <row r="10">
@@ -8799,19 +8799,19 @@
         <v>96263</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77147</v>
+        <v>75881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123669</v>
+        <v>124320</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2018565562696766</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1617716210148869</v>
+        <v>0.1591163974338593</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2593231319186657</v>
+        <v>0.2606885454517929</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>120</v>
@@ -8820,19 +8820,19 @@
         <v>130520</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>109892</v>
+        <v>112312</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>151833</v>
+        <v>151970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2604767799849009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2193080127524089</v>
+        <v>0.2241386226910472</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3030101082383478</v>
+        <v>0.3032836799849088</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>180</v>
@@ -8841,19 +8841,19 @@
         <v>226784</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>197670</v>
+        <v>194134</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>257735</v>
+        <v>255359</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2318917332842717</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.202122237131972</v>
+        <v>0.198506804085701</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2635399653705826</v>
+        <v>0.2611102966633527</v>
       </c>
     </row>
     <row r="11">
@@ -8945,19 +8945,19 @@
         <v>492224</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>469511</v>
+        <v>470161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>512725</v>
+        <v>511801</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7928393444853646</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7562543247263507</v>
+        <v>0.7573018310169922</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8258607279401439</v>
+        <v>0.8243730998738072</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>637</v>
@@ -8966,19 +8966,19 @@
         <v>469551</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>452426</v>
+        <v>452018</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>487925</v>
+        <v>488476</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7567074406432136</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7291109923212633</v>
+        <v>0.72845314116271</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7863194363243265</v>
+        <v>0.7872063332520614</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1069</v>
@@ -8987,19 +8987,19 @@
         <v>961775</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>933019</v>
+        <v>935290</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>991756</v>
+        <v>991974</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.7747780263780383</v>
+        <v>0.7747780263780384</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7516131202453665</v>
+        <v>0.7534431653019645</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7989302896589834</v>
+        <v>0.7991058027458169</v>
       </c>
     </row>
     <row r="13">
@@ -9063,19 +9063,19 @@
         <v>128613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>108112</v>
+        <v>109036</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>151326</v>
+        <v>150676</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2071606555146354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1741392720598562</v>
+        <v>0.1756269001261927</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2437456752736494</v>
+        <v>0.2426981689830077</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>207</v>
@@ -9084,19 +9084,19 @@
         <v>150967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>132593</v>
+        <v>132042</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168092</v>
+        <v>168500</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2432925593567865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2136805636756736</v>
+        <v>0.212793666747939</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2708890076787367</v>
+        <v>0.2715468588372898</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>321</v>
@@ -9105,19 +9105,19 @@
         <v>279580</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>249599</v>
+        <v>249381</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>308336</v>
+        <v>306065</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2252219736219616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2010697103410166</v>
+        <v>0.2008941972541831</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2483868797546334</v>
+        <v>0.2465568346980357</v>
       </c>
     </row>
     <row r="15">
@@ -9209,19 +9209,19 @@
         <v>525361</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>501997</v>
+        <v>501211</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>547211</v>
+        <v>548952</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.751969355856567</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7185266688766969</v>
+        <v>0.7174030082353201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7832435786698663</v>
+        <v>0.7857363406115637</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>868</v>
@@ -9230,19 +9230,19 @@
         <v>559521</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>539976</v>
+        <v>542156</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>577615</v>
+        <v>578296</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7600185592384451</v>
+        <v>0.7600185592384453</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7334692368145607</v>
+        <v>0.7364312653538702</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7845965750562981</v>
+        <v>0.7855208175335524</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1370</v>
@@ -9251,19 +9251,19 @@
         <v>1084882</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1057873</v>
+        <v>1056631</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1113712</v>
+        <v>1115520</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7560992744388597</v>
+        <v>0.7560992744388598</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.737275455459165</v>
+        <v>0.7364098233200911</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7761922171648096</v>
+        <v>0.7774518598372976</v>
       </c>
     </row>
     <row r="17">
@@ -9280,19 +9280,19 @@
         <v>6179</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2235</v>
+        <v>2260</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12954</v>
+        <v>12427</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.008844659024352556</v>
+        <v>0.008844659024352558</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003198679596143005</v>
+        <v>0.003234929048149704</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01854159552449349</v>
+        <v>0.0177866821277192</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -9301,19 +9301,19 @@
         <v>3362</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7573</v>
+        <v>7429</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004566827019129841</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.00179939643367269</v>
+        <v>0.001807907445719394</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01028690463978032</v>
+        <v>0.01009070697072179</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>11</v>
@@ -9322,19 +9322,19 @@
         <v>9541</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5178</v>
+        <v>5144</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17012</v>
+        <v>17417</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.006649771275575955</v>
+        <v>0.006649771275575957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.003608445858617942</v>
+        <v>0.003585145187759145</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01185664703488008</v>
+        <v>0.01213854696520576</v>
       </c>
     </row>
     <row r="18">
@@ -9351,19 +9351,19 @@
         <v>167107</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>145537</v>
+        <v>144291</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>190768</v>
+        <v>191075</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2391859851190804</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2083123735676396</v>
+        <v>0.2065295638457775</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2730527839962742</v>
+        <v>0.2734936129578101</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>267</v>
@@ -9372,19 +9372,19 @@
         <v>173311</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>154491</v>
+        <v>155829</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>192991</v>
+        <v>191270</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2354146137424251</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2098514814404904</v>
+        <v>0.2116680903720008</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2621466653454375</v>
+        <v>0.2598098228553898</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>423</v>
@@ -9393,19 +9393,19 @@
         <v>340417</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>312266</v>
+        <v>310483</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>367565</v>
+        <v>367479</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2372509542855644</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2176309669680268</v>
+        <v>0.2163885365519387</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2561711894336436</v>
+        <v>0.2561114971298039</v>
       </c>
     </row>
     <row r="19">
@@ -9497,19 +9497,19 @@
         <v>484391</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>463324</v>
+        <v>464905</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>505072</v>
+        <v>502077</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7949354938257833</v>
+        <v>0.7949354938257832</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.760362643435644</v>
+        <v>0.7629573128432657</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8288752629489416</v>
+        <v>0.8239600735909535</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>768</v>
@@ -9518,19 +9518,19 @@
         <v>461354</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>443739</v>
+        <v>444716</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>476057</v>
+        <v>479616</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7586407338910501</v>
+        <v>0.7586407338910505</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.729674226886498</v>
+        <v>0.7312805949576852</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7828167789446889</v>
+        <v>0.7886699268383486</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1297</v>
@@ -9539,19 +9539,19 @@
         <v>945745</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>920332</v>
+        <v>921101</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>969539</v>
+        <v>971917</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7768062059577876</v>
+        <v>0.7768062059577877</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7559327838396152</v>
+        <v>0.7565642879419848</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7963498485375623</v>
+        <v>0.7983025491862727</v>
       </c>
     </row>
     <row r="21">
@@ -9568,19 +9568,19 @@
         <v>4321</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10410</v>
+        <v>9592</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.007091046673648941</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.002667257410333008</v>
+        <v>0.002669549974809167</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01708403267828657</v>
+        <v>0.01574161622804592</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>8</v>
@@ -9589,19 +9589,19 @@
         <v>5728</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2802</v>
+        <v>2777</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11004</v>
+        <v>11122</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.009419079150926837</v>
+        <v>0.009419079150926841</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.004607845985354353</v>
+        <v>0.0045668447582175</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01809481590630531</v>
+        <v>0.01828879095118539</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -9610,19 +9610,19 @@
         <v>10049</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>5447</v>
+        <v>5701</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16377</v>
+        <v>17043</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.008253902441878572</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004474126234091118</v>
+        <v>0.004682498584366247</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01345182703015803</v>
+        <v>0.01399895617432109</v>
       </c>
     </row>
     <row r="22">
@@ -9639,19 +9639,19 @@
         <v>120634</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>101247</v>
+        <v>102366</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>140882</v>
+        <v>139082</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1979734595005677</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1661574619243835</v>
+        <v>0.1679937590714973</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2312021716702305</v>
+        <v>0.2282482137519002</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>225</v>
@@ -9660,19 +9660,19 @@
         <v>141050</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>125930</v>
+        <v>123605</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>158892</v>
+        <v>157618</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2319401869580229</v>
+        <v>0.231940186958023</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2070766282233029</v>
+        <v>0.203253919070474</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2612780889735436</v>
+        <v>0.2591826437727666</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>354</v>
@@ -9681,19 +9681,19 @@
         <v>261685</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>237249</v>
+        <v>236160</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>288099</v>
+        <v>285830</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2149398916003338</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1948687746191906</v>
+        <v>0.1939746058621955</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2366358115361126</v>
+        <v>0.2347720246587003</v>
       </c>
     </row>
     <row r="23">
@@ -9785,19 +9785,19 @@
         <v>335196</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>322938</v>
+        <v>320985</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>347287</v>
+        <v>346873</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.8234164212689212</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.7933035292344564</v>
+        <v>0.7885050670440357</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8531164528169348</v>
+        <v>0.8521009033687585</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>642</v>
@@ -9806,19 +9806,19 @@
         <v>336352</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>323343</v>
+        <v>323128</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>348951</v>
+        <v>348461</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7670890771104694</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7374218462872646</v>
+        <v>0.7369301755921971</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7958234843429166</v>
+        <v>0.7947064753438452</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1113</v>
@@ -9827,19 +9827,19 @@
         <v>671548</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>652894</v>
+        <v>651476</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>689017</v>
+        <v>689344</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7942069346755876</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7721461672591121</v>
+        <v>0.7704691022498741</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.8148666183963185</v>
+        <v>0.8152538142214858</v>
       </c>
     </row>
     <row r="25">
@@ -9856,19 +9856,19 @@
         <v>3677</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1340</v>
+        <v>1189</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8843</v>
+        <v>8241</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.009032076706780861</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003291623535356236</v>
+        <v>0.002920215275949683</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02172420557890385</v>
+        <v>0.02024523417057611</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -9877,19 +9877,19 @@
         <v>4275</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8235</v>
+        <v>8705</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.009749853031307851</v>
+        <v>0.009749853031307853</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003904788448783815</v>
+        <v>0.003919070193059652</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01877978588960424</v>
+        <v>0.01985340672100098</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>12</v>
@@ -9898,19 +9898,19 @@
         <v>7952</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4368</v>
+        <v>4379</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13482</v>
+        <v>14692</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.009404291627287417</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005166157712407062</v>
+        <v>0.005178950617306627</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01594472751350785</v>
+        <v>0.0173750018190752</v>
       </c>
     </row>
     <row r="26">
@@ -9927,19 +9927,19 @@
         <v>68207</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>57318</v>
+        <v>56439</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>81315</v>
+        <v>81546</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1675515020242978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1408032423707709</v>
+        <v>0.138643645486867</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1997527635085089</v>
+        <v>0.2003185777748472</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>177</v>
@@ -9948,19 +9948,19 @@
         <v>97851</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>86249</v>
+        <v>85400</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>111164</v>
+        <v>111131</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2231610698582226</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1966999887111415</v>
+        <v>0.1947644572955453</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2535228554515813</v>
+        <v>0.2534477494952776</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>271</v>
@@ -9969,19 +9969,19 @@
         <v>166058</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>149522</v>
+        <v>148141</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>184325</v>
+        <v>184706</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.196388773697125</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1768318637047805</v>
+        <v>0.1751991371184488</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2179922973251746</v>
+        <v>0.2184427759686584</v>
       </c>
     </row>
     <row r="27">
@@ -10073,19 +10073,19 @@
         <v>246876</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>234155</v>
+        <v>235413</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>257152</v>
+        <v>258995</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7958644395949716</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7548571864951218</v>
+        <v>0.7589120753842168</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8289942683243393</v>
+        <v>0.8349333030264271</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>635</v>
@@ -10094,19 +10094,19 @@
         <v>330847</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>316138</v>
+        <v>315403</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>344877</v>
+        <v>344519</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.7138446215997143</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6821087633098782</v>
+        <v>0.68052192089955</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7441161643064758</v>
+        <v>0.7433443191250971</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>995</v>
@@ -10115,19 +10115,19 @@
         <v>577723</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>557238</v>
+        <v>557151</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>595182</v>
+        <v>595185</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7467299667197463</v>
+        <v>0.7467299667197465</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7202522098241524</v>
+        <v>0.7201409982293302</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7692967063914299</v>
+        <v>0.7693008850183991</v>
       </c>
     </row>
     <row r="29">
@@ -10144,19 +10144,19 @@
         <v>5352</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2441</v>
+        <v>2557</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11298</v>
+        <v>10930</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01725245018675098</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.007870726653358497</v>
+        <v>0.008244069927911624</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.03642102710272441</v>
+        <v>0.03523654278785184</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>28</v>
@@ -10165,19 +10165,19 @@
         <v>17576</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11617</v>
+        <v>11822</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24647</v>
+        <v>26663</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0379222574436577</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02506525540609693</v>
+        <v>0.0255072636489539</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05318004582177733</v>
+        <v>0.05752870511175742</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>36</v>
@@ -10186,19 +10186,19 @@
         <v>22928</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>16062</v>
+        <v>15569</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>32982</v>
+        <v>31015</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.0296348244570687</v>
+        <v>0.02963482445706871</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02076034846378265</v>
+        <v>0.02012415678559493</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04263038304858052</v>
+        <v>0.04008774387829407</v>
       </c>
     </row>
     <row r="30">
@@ -10215,19 +10215,19 @@
         <v>57971</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48329</v>
+        <v>46840</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>70780</v>
+        <v>69916</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1868831102182773</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1557993097539045</v>
+        <v>0.1510012116282397</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2281768109009759</v>
+        <v>0.2253906384624059</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>216</v>
@@ -10236,19 +10236,19 @@
         <v>115049</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>101579</v>
+        <v>101315</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>130024</v>
+        <v>128155</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.248233120956628</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2191705075387859</v>
+        <v>0.2185992018733089</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2805436141994509</v>
+        <v>0.2765116937570076</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>306</v>
@@ -10257,19 +10257,19 @@
         <v>173020</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>155751</v>
+        <v>155652</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>193178</v>
+        <v>191160</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2236352088231849</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2013141389990754</v>
+        <v>0.2011866617754332</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2496908394042968</v>
+        <v>0.2470821581569365</v>
       </c>
     </row>
     <row r="31">
@@ -10361,19 +10361,19 @@
         <v>2797610</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>2745695</v>
+        <v>2745920</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2850002</v>
+        <v>2853837</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7923462322186355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7776428357096279</v>
+        <v>0.7777066612141736</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8071850407195638</v>
+        <v>0.808271099221493</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>4043</v>
@@ -10382,19 +10382,19 @@
         <v>2793437</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2746197</v>
+        <v>2741664</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>2841943</v>
+        <v>2837636</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7492790821854085</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.7366080298241331</v>
+        <v>0.7353920508253479</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.762289949991912</v>
+        <v>0.7611346753694243</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>6723</v>
@@ -10403,19 +10403,19 @@
         <v>5591047</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5518045</v>
+        <v>5517917</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5659897</v>
+        <v>5652871</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.770227148058714</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7601703632830673</v>
+        <v>0.7601527376459092</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7797120685453148</v>
+        <v>0.7787441662142296</v>
       </c>
     </row>
     <row r="33">
@@ -10432,19 +10432,19 @@
         <v>20730</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>13430</v>
+        <v>12835</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>30720</v>
+        <v>30360</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.005871329522739726</v>
+        <v>0.005871329522739728</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003803637182875318</v>
+        <v>0.003635174016605662</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.008700713718787239</v>
+        <v>0.008598714429436207</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>49</v>
@@ -10453,19 +10453,19 @@
         <v>32194</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>24206</v>
+        <v>23637</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>42671</v>
+        <v>42763</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.008635370567720303</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.006492662077610336</v>
+        <v>0.006340124598157043</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01144569349059791</v>
+        <v>0.01147023095718375</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>74</v>
@@ -10474,19 +10474,19 @@
         <v>52925</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>42418</v>
+        <v>40587</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>67404</v>
+        <v>67174</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.00729092790452803</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.00584356389837013</v>
+        <v>0.005591272241889727</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.009285570208554543</v>
+        <v>0.009253970882057842</v>
       </c>
     </row>
     <row r="34">
@@ -10503,19 +10503,19 @@
         <v>712452</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>658870</v>
+        <v>658607</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>763767</v>
+        <v>764936</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2017824382586246</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1866067806515566</v>
+        <v>0.1865324077430032</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2163159242041635</v>
+        <v>0.2166471123533554</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1264</v>
@@ -10524,19 +10524,19 @@
         <v>902535</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>857285</v>
+        <v>860992</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>950438</v>
+        <v>954616</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2420855472468712</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2299481975988693</v>
+        <v>0.2309425714181052</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2549345801301956</v>
+        <v>0.2560552231059673</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1934</v>
@@ -10545,19 +10545,19 @@
         <v>1614987</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1550223</v>
+        <v>1553494</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1691654</v>
+        <v>1687744</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.222481924036758</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2135600165812592</v>
+        <v>0.2140105781449059</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2330436411109989</v>
+        <v>0.2325050389575387</v>
       </c>
     </row>
     <row r="35">
